--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_DON_DAT_HANG_THANH_VIEN.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_DON_DAT_HANG_THANH_VIEN.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB06_BULK_IMPORTING_T_SQL_QUERIES\LA_2024\"/>
@@ -15,7 +15,7 @@
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE!$A$1:$AK$1</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="117">
   <si>
     <t>XOA_SUA</t>
   </si>
@@ -309,6 +309,75 @@
   </si>
   <si>
     <t>LOCKED</t>
+  </si>
+  <si>
+    <t>TB-DDH-001A</t>
+  </si>
+  <si>
+    <t>DN-DDH-001A</t>
+  </si>
+  <si>
+    <t>TB-DDH-002A</t>
+  </si>
+  <si>
+    <t>MB-DDH-001A</t>
+  </si>
+  <si>
+    <t>HN-DDH-001A</t>
+  </si>
+  <si>
+    <t>DN-DDH-002A</t>
+  </si>
+  <si>
+    <t>TB-DDH-001B</t>
+  </si>
+  <si>
+    <t>DN-DDH-001B</t>
+  </si>
+  <si>
+    <t>TB-DDH-002B</t>
+  </si>
+  <si>
+    <t>MB-DDH-001B</t>
+  </si>
+  <si>
+    <t>HN-DDH-001B</t>
+  </si>
+  <si>
+    <t>DA_XAC_NHAN</t>
+  </si>
+  <si>
+    <t>DA_THONG_BAO_GIAO_HANG</t>
+  </si>
+  <si>
+    <t>DA_GIAO_MOT_PHAN</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>DA_HOAN_THANH</t>
+  </si>
+  <si>
+    <t>DN-DDH-002BV</t>
+  </si>
+  <si>
+    <t>DN-DDH-002AV</t>
+  </si>
+  <si>
+    <t>TB-DDH-001BV</t>
+  </si>
+  <si>
+    <t>DN-DDH-001BV</t>
+  </si>
+  <si>
+    <t>TB-DDH-002BV</t>
+  </si>
+  <si>
+    <t>MB-DDH-001BV</t>
+  </si>
+  <si>
+    <t>HN-DDH-001BV</t>
   </si>
 </sst>
 </file>
@@ -655,15 +724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AK97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B28" sqref="B28"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -701,7 +771,7 @@
     <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -1013,6 +1083,9 @@
       <c r="S5" s="2">
         <v>45513</v>
       </c>
+      <c r="AH5" t="s">
+        <v>105</v>
+      </c>
       <c r="AI5" t="s">
         <v>3</v>
       </c>
@@ -1063,6 +1136,9 @@
       <c r="S6" s="2">
         <v>45513</v>
       </c>
+      <c r="AH6" t="s">
+        <v>105</v>
+      </c>
       <c r="AI6" t="s">
         <v>3</v>
       </c>
@@ -1112,6 +1188,9 @@
       </c>
       <c r="S7" s="2">
         <v>45513</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>105</v>
       </c>
       <c r="AI7" t="s">
         <v>3</v>
@@ -1163,6 +1242,9 @@
       <c r="S8" s="2">
         <v>45513</v>
       </c>
+      <c r="AH8" t="s">
+        <v>109</v>
+      </c>
       <c r="AI8" t="s">
         <v>3</v>
       </c>
@@ -1213,6 +1295,9 @@
       <c r="S9" s="2">
         <v>45513</v>
       </c>
+      <c r="AH9" t="s">
+        <v>109</v>
+      </c>
       <c r="AI9" t="s">
         <v>3</v>
       </c>
@@ -1262,6 +1347,9 @@
       </c>
       <c r="S10" s="2">
         <v>45513</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>109</v>
       </c>
       <c r="AI10" t="s">
         <v>3</v>
@@ -1313,6 +1401,9 @@
       <c r="S11" s="2">
         <v>45513</v>
       </c>
+      <c r="AH11" t="s">
+        <v>109</v>
+      </c>
       <c r="AI11" t="s">
         <v>3</v>
       </c>
@@ -1363,6 +1454,9 @@
       <c r="S12" s="2">
         <v>45513</v>
       </c>
+      <c r="AH12" t="s">
+        <v>106</v>
+      </c>
       <c r="AI12" t="s">
         <v>3</v>
       </c>
@@ -1413,6 +1507,9 @@
       <c r="S13" s="2">
         <v>45513</v>
       </c>
+      <c r="AH13" t="s">
+        <v>106</v>
+      </c>
       <c r="AI13" t="s">
         <v>3</v>
       </c>
@@ -1462,6 +1559,9 @@
       </c>
       <c r="S14" s="2">
         <v>45513</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>106</v>
       </c>
       <c r="AI14" t="s">
         <v>3</v>
@@ -1513,6 +1613,9 @@
       <c r="S15" s="2">
         <v>45513</v>
       </c>
+      <c r="AH15" t="s">
+        <v>106</v>
+      </c>
       <c r="AI15" t="s">
         <v>3</v>
       </c>
@@ -1763,6 +1866,9 @@
       <c r="S20" s="2">
         <v>45513</v>
       </c>
+      <c r="AH20" t="s">
+        <v>105</v>
+      </c>
       <c r="AI20" t="s">
         <v>3</v>
       </c>
@@ -1813,6 +1919,9 @@
       <c r="S21" s="2">
         <v>45513</v>
       </c>
+      <c r="AH21" t="s">
+        <v>105</v>
+      </c>
       <c r="AI21" t="s">
         <v>3</v>
       </c>
@@ -1862,6 +1971,9 @@
       </c>
       <c r="S22" s="2">
         <v>45513</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>105</v>
       </c>
       <c r="AI22" t="s">
         <v>3</v>
@@ -1913,6 +2025,9 @@
       <c r="S23" s="2">
         <v>45513</v>
       </c>
+      <c r="AH23" t="s">
+        <v>105</v>
+      </c>
       <c r="AI23" t="s">
         <v>3</v>
       </c>
@@ -1963,6 +2078,9 @@
       <c r="S24" s="2">
         <v>45513</v>
       </c>
+      <c r="AH24" t="s">
+        <v>105</v>
+      </c>
       <c r="AI24" t="s">
         <v>3</v>
       </c>
@@ -2013,6 +2131,9 @@
       <c r="S25" s="2">
         <v>45513</v>
       </c>
+      <c r="AH25" t="s">
+        <v>105</v>
+      </c>
       <c r="AI25" t="s">
         <v>3</v>
       </c>
@@ -2020,12 +2141,3698 @@
         <v>45513</v>
       </c>
     </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>300</v>
+      </c>
+      <c r="N26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" t="s">
+        <v>92</v>
+      </c>
+      <c r="R26" t="s">
+        <v>93</v>
+      </c>
+      <c r="S26" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27">
+        <v>500</v>
+      </c>
+      <c r="N27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" t="s">
+        <v>92</v>
+      </c>
+      <c r="R27" t="s">
+        <v>93</v>
+      </c>
+      <c r="S27" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <v>600</v>
+      </c>
+      <c r="N28" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" t="s">
+        <v>93</v>
+      </c>
+      <c r="S28" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29">
+        <v>700</v>
+      </c>
+      <c r="N29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="s">
+        <v>92</v>
+      </c>
+      <c r="R29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S29" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s">
+        <v>92</v>
+      </c>
+      <c r="R30" t="s">
+        <v>93</v>
+      </c>
+      <c r="S30" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="N31" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" t="s">
+        <v>92</v>
+      </c>
+      <c r="R31" t="s">
+        <v>93</v>
+      </c>
+      <c r="S31" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s">
+        <v>92</v>
+      </c>
+      <c r="R32" t="s">
+        <v>93</v>
+      </c>
+      <c r="S32" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>88</v>
+      </c>
+      <c r="O33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" t="s">
+        <v>92</v>
+      </c>
+      <c r="R33" t="s">
+        <v>93</v>
+      </c>
+      <c r="S33" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="N34" t="s">
+        <v>88</v>
+      </c>
+      <c r="O34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" t="s">
+        <v>92</v>
+      </c>
+      <c r="R34" t="s">
+        <v>93</v>
+      </c>
+      <c r="S34" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35">
+        <v>300</v>
+      </c>
+      <c r="N35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O35" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" t="s">
+        <v>92</v>
+      </c>
+      <c r="R35" t="s">
+        <v>93</v>
+      </c>
+      <c r="S35" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>500</v>
+      </c>
+      <c r="N36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R36" t="s">
+        <v>93</v>
+      </c>
+      <c r="S36" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37">
+        <v>600</v>
+      </c>
+      <c r="N37" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" t="s">
+        <v>92</v>
+      </c>
+      <c r="R37" t="s">
+        <v>93</v>
+      </c>
+      <c r="S37" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38">
+        <v>700</v>
+      </c>
+      <c r="N38" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38" t="s">
+        <v>93</v>
+      </c>
+      <c r="S38" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>90</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R39" t="s">
+        <v>93</v>
+      </c>
+      <c r="S39" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="N40" t="s">
+        <v>91</v>
+      </c>
+      <c r="O40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" t="s">
+        <v>92</v>
+      </c>
+      <c r="R40" t="s">
+        <v>93</v>
+      </c>
+      <c r="S40" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41">
+        <v>300</v>
+      </c>
+      <c r="N41" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="s">
+        <v>92</v>
+      </c>
+      <c r="R41" t="s">
+        <v>93</v>
+      </c>
+      <c r="S41" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42">
+        <v>500</v>
+      </c>
+      <c r="N42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="s">
+        <v>92</v>
+      </c>
+      <c r="R42" t="s">
+        <v>93</v>
+      </c>
+      <c r="S42" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ42" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43">
+        <v>600</v>
+      </c>
+      <c r="N43" t="s">
+        <v>91</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="s">
+        <v>92</v>
+      </c>
+      <c r="R43" t="s">
+        <v>93</v>
+      </c>
+      <c r="S43" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ43" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44">
+        <v>700</v>
+      </c>
+      <c r="N44" t="s">
+        <v>89</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s">
+        <v>92</v>
+      </c>
+      <c r="R44" t="s">
+        <v>93</v>
+      </c>
+      <c r="S44" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ44" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>89</v>
+      </c>
+      <c r="O45" t="s">
+        <v>89</v>
+      </c>
+      <c r="P45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R45" t="s">
+        <v>93</v>
+      </c>
+      <c r="S45" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ45" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="N46" t="s">
+        <v>89</v>
+      </c>
+      <c r="O46" t="s">
+        <v>89</v>
+      </c>
+      <c r="P46" t="s">
+        <v>92</v>
+      </c>
+      <c r="R46" t="s">
+        <v>93</v>
+      </c>
+      <c r="S46" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ46" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>89</v>
+      </c>
+      <c r="O47" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" t="s">
+        <v>92</v>
+      </c>
+      <c r="R47" t="s">
+        <v>93</v>
+      </c>
+      <c r="S47" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ47" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48">
+        <v>23</v>
+      </c>
+      <c r="N48" t="s">
+        <v>89</v>
+      </c>
+      <c r="O48" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" t="s">
+        <v>92</v>
+      </c>
+      <c r="R48" t="s">
+        <v>93</v>
+      </c>
+      <c r="S48" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ48" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="N49" t="s">
+        <v>89</v>
+      </c>
+      <c r="O49" t="s">
+        <v>89</v>
+      </c>
+      <c r="P49" t="s">
+        <v>92</v>
+      </c>
+      <c r="R49" t="s">
+        <v>93</v>
+      </c>
+      <c r="S49" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ49" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50">
+        <v>300</v>
+      </c>
+      <c r="N50" t="s">
+        <v>88</v>
+      </c>
+      <c r="O50" t="s">
+        <v>88</v>
+      </c>
+      <c r="P50" t="s">
+        <v>92</v>
+      </c>
+      <c r="R50" t="s">
+        <v>93</v>
+      </c>
+      <c r="S50" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ50" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51">
+        <v>500</v>
+      </c>
+      <c r="N51" t="s">
+        <v>88</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="s">
+        <v>92</v>
+      </c>
+      <c r="R51" t="s">
+        <v>93</v>
+      </c>
+      <c r="S51" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ51" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52">
+        <v>600</v>
+      </c>
+      <c r="N52" t="s">
+        <v>88</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="s">
+        <v>92</v>
+      </c>
+      <c r="R52" t="s">
+        <v>93</v>
+      </c>
+      <c r="S52" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ52" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53">
+        <v>700</v>
+      </c>
+      <c r="N53" t="s">
+        <v>89</v>
+      </c>
+      <c r="O53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P53" t="s">
+        <v>92</v>
+      </c>
+      <c r="R53" t="s">
+        <v>93</v>
+      </c>
+      <c r="S53" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ53" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>89</v>
+      </c>
+      <c r="O54" t="s">
+        <v>89</v>
+      </c>
+      <c r="P54" t="s">
+        <v>92</v>
+      </c>
+      <c r="R54" t="s">
+        <v>93</v>
+      </c>
+      <c r="S54" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ54" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s">
+        <v>49</v>
+      </c>
+      <c r="I55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="N55" t="s">
+        <v>89</v>
+      </c>
+      <c r="O55" t="s">
+        <v>89</v>
+      </c>
+      <c r="P55" t="s">
+        <v>92</v>
+      </c>
+      <c r="R55" t="s">
+        <v>93</v>
+      </c>
+      <c r="S55" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ55" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>88</v>
+      </c>
+      <c r="O56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56" t="s">
+        <v>92</v>
+      </c>
+      <c r="R56" t="s">
+        <v>93</v>
+      </c>
+      <c r="S56" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57">
+        <v>23</v>
+      </c>
+      <c r="N57" t="s">
+        <v>88</v>
+      </c>
+      <c r="O57" t="s">
+        <v>88</v>
+      </c>
+      <c r="P57" t="s">
+        <v>92</v>
+      </c>
+      <c r="R57" t="s">
+        <v>93</v>
+      </c>
+      <c r="S57" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ57" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="N58" t="s">
+        <v>88</v>
+      </c>
+      <c r="O58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58" t="s">
+        <v>92</v>
+      </c>
+      <c r="R58" t="s">
+        <v>93</v>
+      </c>
+      <c r="S58" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ58" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59">
+        <v>300</v>
+      </c>
+      <c r="N59" t="s">
+        <v>88</v>
+      </c>
+      <c r="O59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59" t="s">
+        <v>92</v>
+      </c>
+      <c r="R59" t="s">
+        <v>93</v>
+      </c>
+      <c r="S59" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ59" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60">
+        <v>500</v>
+      </c>
+      <c r="N60" t="s">
+        <v>90</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" t="s">
+        <v>92</v>
+      </c>
+      <c r="R60" t="s">
+        <v>93</v>
+      </c>
+      <c r="S60" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ60" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61">
+        <v>600</v>
+      </c>
+      <c r="N61" t="s">
+        <v>90</v>
+      </c>
+      <c r="O61" t="s">
+        <v>90</v>
+      </c>
+      <c r="P61" t="s">
+        <v>92</v>
+      </c>
+      <c r="R61" t="s">
+        <v>93</v>
+      </c>
+      <c r="S61" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ61" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J62">
+        <v>700</v>
+      </c>
+      <c r="N62" t="s">
+        <v>90</v>
+      </c>
+      <c r="O62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" t="s">
+        <v>92</v>
+      </c>
+      <c r="R62" t="s">
+        <v>93</v>
+      </c>
+      <c r="S62" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ62" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>90</v>
+      </c>
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" t="s">
+        <v>92</v>
+      </c>
+      <c r="R63" t="s">
+        <v>93</v>
+      </c>
+      <c r="S63" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ63" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" t="s">
+        <v>68</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="N64" t="s">
+        <v>91</v>
+      </c>
+      <c r="O64" t="s">
+        <v>91</v>
+      </c>
+      <c r="P64" t="s">
+        <v>92</v>
+      </c>
+      <c r="R64" t="s">
+        <v>93</v>
+      </c>
+      <c r="S64" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ64" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" t="s">
+        <v>70</v>
+      </c>
+      <c r="J65">
+        <v>300</v>
+      </c>
+      <c r="N65" t="s">
+        <v>91</v>
+      </c>
+      <c r="O65" t="s">
+        <v>91</v>
+      </c>
+      <c r="P65" t="s">
+        <v>92</v>
+      </c>
+      <c r="R65" t="s">
+        <v>93</v>
+      </c>
+      <c r="S65" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ65" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" t="s">
+        <v>86</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66">
+        <v>500</v>
+      </c>
+      <c r="N66" t="s">
+        <v>91</v>
+      </c>
+      <c r="O66" t="s">
+        <v>91</v>
+      </c>
+      <c r="P66" t="s">
+        <v>92</v>
+      </c>
+      <c r="R66" t="s">
+        <v>93</v>
+      </c>
+      <c r="S66" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ66" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67">
+        <v>600</v>
+      </c>
+      <c r="N67" t="s">
+        <v>91</v>
+      </c>
+      <c r="O67" t="s">
+        <v>91</v>
+      </c>
+      <c r="P67" t="s">
+        <v>92</v>
+      </c>
+      <c r="R67" t="s">
+        <v>93</v>
+      </c>
+      <c r="S67" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ67" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68">
+        <v>700</v>
+      </c>
+      <c r="N68" t="s">
+        <v>89</v>
+      </c>
+      <c r="O68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P68" t="s">
+        <v>92</v>
+      </c>
+      <c r="R68" t="s">
+        <v>93</v>
+      </c>
+      <c r="S68" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ68" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>89</v>
+      </c>
+      <c r="O69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P69" t="s">
+        <v>92</v>
+      </c>
+      <c r="R69" t="s">
+        <v>93</v>
+      </c>
+      <c r="S69" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ69" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="N70" t="s">
+        <v>89</v>
+      </c>
+      <c r="O70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P70" t="s">
+        <v>92</v>
+      </c>
+      <c r="R70" t="s">
+        <v>93</v>
+      </c>
+      <c r="S70" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ70" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>89</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P71" t="s">
+        <v>92</v>
+      </c>
+      <c r="R71" t="s">
+        <v>93</v>
+      </c>
+      <c r="S71" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ71" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s">
+        <v>78</v>
+      </c>
+      <c r="J72">
+        <v>23</v>
+      </c>
+      <c r="N72" t="s">
+        <v>89</v>
+      </c>
+      <c r="O72" t="s">
+        <v>89</v>
+      </c>
+      <c r="P72" t="s">
+        <v>92</v>
+      </c>
+      <c r="R72" t="s">
+        <v>93</v>
+      </c>
+      <c r="S72" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ72" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="N73" t="s">
+        <v>89</v>
+      </c>
+      <c r="O73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="s">
+        <v>92</v>
+      </c>
+      <c r="R73" t="s">
+        <v>93</v>
+      </c>
+      <c r="S73" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ73" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" t="s">
+        <v>70</v>
+      </c>
+      <c r="J74">
+        <v>700</v>
+      </c>
+      <c r="N74" t="s">
+        <v>89</v>
+      </c>
+      <c r="O74" t="s">
+        <v>89</v>
+      </c>
+      <c r="P74" t="s">
+        <v>92</v>
+      </c>
+      <c r="R74" t="s">
+        <v>93</v>
+      </c>
+      <c r="S74" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ74" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75" t="s">
+        <v>72</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>89</v>
+      </c>
+      <c r="O75" t="s">
+        <v>89</v>
+      </c>
+      <c r="P75" t="s">
+        <v>92</v>
+      </c>
+      <c r="R75" t="s">
+        <v>93</v>
+      </c>
+      <c r="S75" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ75" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="N76" t="s">
+        <v>89</v>
+      </c>
+      <c r="O76" t="s">
+        <v>89</v>
+      </c>
+      <c r="P76" t="s">
+        <v>92</v>
+      </c>
+      <c r="R76" t="s">
+        <v>93</v>
+      </c>
+      <c r="S76" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ76" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O77" t="s">
+        <v>89</v>
+      </c>
+      <c r="P77" t="s">
+        <v>92</v>
+      </c>
+      <c r="R77" t="s">
+        <v>93</v>
+      </c>
+      <c r="S77" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ77" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s">
+        <v>78</v>
+      </c>
+      <c r="J78">
+        <v>23</v>
+      </c>
+      <c r="N78" t="s">
+        <v>89</v>
+      </c>
+      <c r="O78" t="s">
+        <v>89</v>
+      </c>
+      <c r="P78" t="s">
+        <v>92</v>
+      </c>
+      <c r="R78" t="s">
+        <v>93</v>
+      </c>
+      <c r="S78" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ78" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s">
+        <v>80</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="N79" t="s">
+        <v>89</v>
+      </c>
+      <c r="O79" t="s">
+        <v>89</v>
+      </c>
+      <c r="P79" t="s">
+        <v>92</v>
+      </c>
+      <c r="R79" t="s">
+        <v>93</v>
+      </c>
+      <c r="S79" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ79" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s">
+        <v>39</v>
+      </c>
+      <c r="I80" t="s">
+        <v>40</v>
+      </c>
+      <c r="J80">
+        <v>300</v>
+      </c>
+      <c r="N80" t="s">
+        <v>88</v>
+      </c>
+      <c r="O80" t="s">
+        <v>88</v>
+      </c>
+      <c r="P80" t="s">
+        <v>92</v>
+      </c>
+      <c r="R80" t="s">
+        <v>93</v>
+      </c>
+      <c r="S80" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ80" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81">
+        <v>500</v>
+      </c>
+      <c r="N81" t="s">
+        <v>88</v>
+      </c>
+      <c r="O81" t="s">
+        <v>88</v>
+      </c>
+      <c r="P81" t="s">
+        <v>92</v>
+      </c>
+      <c r="R81" t="s">
+        <v>93</v>
+      </c>
+      <c r="S81" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ81" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F82" t="s">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s">
+        <v>44</v>
+      </c>
+      <c r="J82">
+        <v>600</v>
+      </c>
+      <c r="N82" t="s">
+        <v>88</v>
+      </c>
+      <c r="O82" t="s">
+        <v>88</v>
+      </c>
+      <c r="P82" t="s">
+        <v>92</v>
+      </c>
+      <c r="R82" t="s">
+        <v>93</v>
+      </c>
+      <c r="S82" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ82" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" t="s">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s">
+        <v>87</v>
+      </c>
+      <c r="H83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83">
+        <v>700</v>
+      </c>
+      <c r="N83" t="s">
+        <v>89</v>
+      </c>
+      <c r="O83" t="s">
+        <v>89</v>
+      </c>
+      <c r="P83" t="s">
+        <v>92</v>
+      </c>
+      <c r="R83" t="s">
+        <v>93</v>
+      </c>
+      <c r="S83" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ83" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>89</v>
+      </c>
+      <c r="O84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" t="s">
+        <v>92</v>
+      </c>
+      <c r="R84" t="s">
+        <v>93</v>
+      </c>
+      <c r="S84" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ84" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s">
+        <v>49</v>
+      </c>
+      <c r="I85" t="s">
+        <v>50</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
+      </c>
+      <c r="N85" t="s">
+        <v>89</v>
+      </c>
+      <c r="O85" t="s">
+        <v>89</v>
+      </c>
+      <c r="P85" t="s">
+        <v>92</v>
+      </c>
+      <c r="R85" t="s">
+        <v>93</v>
+      </c>
+      <c r="S85" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ85" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s">
+        <v>87</v>
+      </c>
+      <c r="H86" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>88</v>
+      </c>
+      <c r="O86" t="s">
+        <v>88</v>
+      </c>
+      <c r="P86" t="s">
+        <v>92</v>
+      </c>
+      <c r="R86" t="s">
+        <v>93</v>
+      </c>
+      <c r="S86" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ86" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s">
+        <v>53</v>
+      </c>
+      <c r="I87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87">
+        <v>23</v>
+      </c>
+      <c r="N87" t="s">
+        <v>88</v>
+      </c>
+      <c r="O87" t="s">
+        <v>88</v>
+      </c>
+      <c r="P87" t="s">
+        <v>92</v>
+      </c>
+      <c r="R87" t="s">
+        <v>93</v>
+      </c>
+      <c r="S87" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ87" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s">
+        <v>55</v>
+      </c>
+      <c r="I88" t="s">
+        <v>56</v>
+      </c>
+      <c r="J88">
+        <v>10</v>
+      </c>
+      <c r="N88" t="s">
+        <v>88</v>
+      </c>
+      <c r="O88" t="s">
+        <v>88</v>
+      </c>
+      <c r="P88" t="s">
+        <v>92</v>
+      </c>
+      <c r="R88" t="s">
+        <v>93</v>
+      </c>
+      <c r="S88" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ88" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" t="s">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89">
+        <v>300</v>
+      </c>
+      <c r="N89" t="s">
+        <v>88</v>
+      </c>
+      <c r="O89" t="s">
+        <v>88</v>
+      </c>
+      <c r="P89" t="s">
+        <v>92</v>
+      </c>
+      <c r="R89" t="s">
+        <v>93</v>
+      </c>
+      <c r="S89" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ89" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s">
+        <v>87</v>
+      </c>
+      <c r="H90" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" t="s">
+        <v>60</v>
+      </c>
+      <c r="J90">
+        <v>500</v>
+      </c>
+      <c r="N90" t="s">
+        <v>90</v>
+      </c>
+      <c r="O90" t="s">
+        <v>90</v>
+      </c>
+      <c r="P90" t="s">
+        <v>92</v>
+      </c>
+      <c r="R90" t="s">
+        <v>93</v>
+      </c>
+      <c r="S90" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ90" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s">
+        <v>61</v>
+      </c>
+      <c r="I91" t="s">
+        <v>62</v>
+      </c>
+      <c r="J91">
+        <v>600</v>
+      </c>
+      <c r="N91" t="s">
+        <v>90</v>
+      </c>
+      <c r="O91" t="s">
+        <v>90</v>
+      </c>
+      <c r="P91" t="s">
+        <v>92</v>
+      </c>
+      <c r="R91" t="s">
+        <v>93</v>
+      </c>
+      <c r="S91" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ91" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" t="s">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s">
+        <v>87</v>
+      </c>
+      <c r="H92" t="s">
+        <v>63</v>
+      </c>
+      <c r="I92" t="s">
+        <v>64</v>
+      </c>
+      <c r="J92">
+        <v>700</v>
+      </c>
+      <c r="N92" t="s">
+        <v>90</v>
+      </c>
+      <c r="O92" t="s">
+        <v>90</v>
+      </c>
+      <c r="P92" t="s">
+        <v>92</v>
+      </c>
+      <c r="R92" t="s">
+        <v>93</v>
+      </c>
+      <c r="S92" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ92" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s">
+        <v>65</v>
+      </c>
+      <c r="I93" t="s">
+        <v>66</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>90</v>
+      </c>
+      <c r="O93" t="s">
+        <v>90</v>
+      </c>
+      <c r="P93" t="s">
+        <v>92</v>
+      </c>
+      <c r="R93" t="s">
+        <v>93</v>
+      </c>
+      <c r="S93" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ93" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s">
+        <v>87</v>
+      </c>
+      <c r="H94" t="s">
+        <v>67</v>
+      </c>
+      <c r="I94" t="s">
+        <v>68</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+      <c r="N94" t="s">
+        <v>91</v>
+      </c>
+      <c r="O94" t="s">
+        <v>91</v>
+      </c>
+      <c r="P94" t="s">
+        <v>92</v>
+      </c>
+      <c r="R94" t="s">
+        <v>93</v>
+      </c>
+      <c r="S94" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ94" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s">
+        <v>87</v>
+      </c>
+      <c r="H95" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95">
+        <v>300</v>
+      </c>
+      <c r="N95" t="s">
+        <v>91</v>
+      </c>
+      <c r="O95" t="s">
+        <v>91</v>
+      </c>
+      <c r="P95" t="s">
+        <v>92</v>
+      </c>
+      <c r="R95" t="s">
+        <v>93</v>
+      </c>
+      <c r="S95" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ95" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F96" t="s">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s">
+        <v>87</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96">
+        <v>500</v>
+      </c>
+      <c r="N96" t="s">
+        <v>91</v>
+      </c>
+      <c r="O96" t="s">
+        <v>91</v>
+      </c>
+      <c r="P96" t="s">
+        <v>92</v>
+      </c>
+      <c r="R96" t="s">
+        <v>93</v>
+      </c>
+      <c r="S96" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ96" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" t="s">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s">
+        <v>87</v>
+      </c>
+      <c r="H97" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97" t="s">
+        <v>74</v>
+      </c>
+      <c r="J97">
+        <v>600</v>
+      </c>
+      <c r="N97" t="s">
+        <v>91</v>
+      </c>
+      <c r="O97" t="s">
+        <v>91</v>
+      </c>
+      <c r="P97" t="s">
+        <v>92</v>
+      </c>
+      <c r="R97" t="s">
+        <v>93</v>
+      </c>
+      <c r="S97" s="2">
+        <v>45513</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ97" s="2">
+        <v>45513</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A3:B8">
-      <sortCondition ref="A2"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AK1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_DON_DAT_HANG_THANH_VIEN.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_DON_DAT_HANG_THANH_VIEN.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE!$A$1:$AN$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE!$A$1:$AK$97</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -817,10 +817,10 @@
   <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L97"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1438,8 +1438,11 @@
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>128</v>
@@ -1509,8 +1512,11 @@
       <c r="J9">
         <v>23</v>
       </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
       <c r="L9">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N9" t="s">
         <v>128</v>
@@ -1580,8 +1586,11 @@
       <c r="J10">
         <v>10</v>
       </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
       <c r="L10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
         <v>128</v>
@@ -1651,8 +1660,11 @@
       <c r="J11">
         <v>300</v>
       </c>
+      <c r="K11">
+        <v>300</v>
+      </c>
       <c r="L11">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
         <v>128</v>
@@ -2705,7 +2717,7 @@
         <v>300</v>
       </c>
       <c r="L26">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
         <v>128</v>
@@ -2776,7 +2788,7 @@
         <v>500</v>
       </c>
       <c r="L27">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N27" t="s">
         <v>128</v>
@@ -2847,7 +2859,7 @@
         <v>600</v>
       </c>
       <c r="L28">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N28" t="s">
         <v>128</v>
@@ -2917,8 +2929,11 @@
       <c r="J29">
         <v>700</v>
       </c>
+      <c r="K29">
+        <v>350</v>
+      </c>
       <c r="L29">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N29" t="s">
         <v>128</v>
@@ -2986,10 +3001,10 @@
         <v>92</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>5000000</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>5000000</v>
       </c>
       <c r="N30" t="s">
         <v>128</v>
@@ -3057,10 +3072,10 @@
         <v>92</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>600000080</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>600000080</v>
       </c>
       <c r="N31" t="s">
         <v>128</v>
@@ -3699,7 +3714,7 @@
         <v>6</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
         <v>128</v>
@@ -3770,7 +3785,7 @@
         <v>300</v>
       </c>
       <c r="L41">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N41" t="s">
         <v>128</v>
@@ -3841,7 +3856,7 @@
         <v>500</v>
       </c>
       <c r="L42">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N42" t="s">
         <v>128</v>
@@ -3912,7 +3927,7 @@
         <v>600</v>
       </c>
       <c r="L43">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N43" t="s">
         <v>128</v>
@@ -3982,8 +3997,11 @@
       <c r="J44">
         <v>700</v>
       </c>
+      <c r="K44">
+        <v>700</v>
+      </c>
       <c r="L44">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N44" t="s">
         <v>128</v>
@@ -4053,8 +4071,11 @@
       <c r="J45">
         <v>5</v>
       </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
       <c r="L45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N45" t="s">
         <v>128</v>
@@ -4124,8 +4145,11 @@
       <c r="J46">
         <v>6</v>
       </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
       <c r="L46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N46" t="s">
         <v>128</v>
@@ -4195,8 +4219,11 @@
       <c r="J47">
         <v>1</v>
       </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="s">
         <v>128</v>
@@ -4266,8 +4293,11 @@
       <c r="J48">
         <v>23</v>
       </c>
+      <c r="K48">
+        <v>23</v>
+      </c>
       <c r="L48">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N48" t="s">
         <v>128</v>
@@ -4337,8 +4367,11 @@
       <c r="J49">
         <v>10</v>
       </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
       <c r="L49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N49" t="s">
         <v>128</v>
@@ -6040,8 +6073,11 @@
       <c r="J74">
         <v>700</v>
       </c>
+      <c r="K74">
+        <v>700</v>
+      </c>
       <c r="L74">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N74" t="s">
         <v>128</v>
@@ -6111,8 +6147,11 @@
       <c r="J75">
         <v>5</v>
       </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
       <c r="L75">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N75" t="s">
         <v>128</v>
@@ -6182,8 +6221,11 @@
       <c r="J76">
         <v>6</v>
       </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
       <c r="L76">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N76" t="s">
         <v>128</v>
@@ -6253,8 +6295,11 @@
       <c r="J77">
         <v>1</v>
       </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
       <c r="L77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="s">
         <v>128</v>
@@ -6324,8 +6369,11 @@
       <c r="J78">
         <v>23</v>
       </c>
+      <c r="K78">
+        <v>23</v>
+      </c>
       <c r="L78">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N78" t="s">
         <v>128</v>
@@ -6395,8 +6443,11 @@
       <c r="J79">
         <v>10</v>
       </c>
+      <c r="K79">
+        <v>10</v>
+      </c>
       <c r="L79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N79" t="s">
         <v>128</v>
@@ -7660,7 +7711,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK1"/>
+  <autoFilter ref="A1:AK97"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_DON_DAT_HANG_THANH_VIEN.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_DON_DAT_HANG_THANH_VIEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="150">
   <si>
     <t>XOA_SUA</t>
   </si>
@@ -293,18 +293,6 @@
     <t>CTY LONG AN</t>
   </si>
   <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
     <t>cái</t>
   </si>
   <si>
@@ -465,6 +453,30 @@
   </si>
   <si>
     <t>PYC_24</t>
+  </si>
+  <si>
+    <t>BH012</t>
+  </si>
+  <si>
+    <t>Cty Tuấn Ân Đà Nẵng</t>
+  </si>
+  <si>
+    <t>BH004</t>
+  </si>
+  <si>
+    <t>Cty Tuấn Ân Hà Nội</t>
+  </si>
+  <si>
+    <t>BH005</t>
+  </si>
+  <si>
+    <t>Cty Tuấn Ân Miền Bắc</t>
+  </si>
+  <si>
+    <t>BH003</t>
+  </si>
+  <si>
+    <t>Cty Thiết Bị Điện Tuấn Ân</t>
   </si>
 </sst>
 </file>
@@ -817,10 +829,10 @@
   <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -873,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -900,10 +912,10 @@
         <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>34</v>
@@ -998,7 +1010,7 @@
         <v>45474</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
@@ -1016,7 +1028,7 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J2">
         <v>300</v>
@@ -1025,16 +1037,16 @@
         <v>300</v>
       </c>
       <c r="N2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O2" s="2">
         <v>45498</v>
       </c>
       <c r="Q2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S2" s="2">
         <v>45513</v>
@@ -1046,10 +1058,10 @@
         <v>3</v>
       </c>
       <c r="AJ2" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK2" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL2" t="s">
         <v>3</v>
@@ -1066,7 +1078,7 @@
         <v>45474</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>86</v>
@@ -1084,7 +1096,7 @@
         <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J3">
         <v>500</v>
@@ -1093,16 +1105,16 @@
         <v>500</v>
       </c>
       <c r="N3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O3" s="2">
         <v>45498</v>
       </c>
       <c r="Q3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S3" s="2">
         <v>45513</v>
@@ -1114,10 +1126,10 @@
         <v>3</v>
       </c>
       <c r="AJ3" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK3" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL3" t="s">
         <v>3</v>
@@ -1134,7 +1146,7 @@
         <v>45474</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>86</v>
@@ -1152,7 +1164,7 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J4">
         <v>600</v>
@@ -1161,16 +1173,16 @@
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O4" s="2">
         <v>45498</v>
       </c>
       <c r="Q4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S4" s="2">
         <v>45513</v>
@@ -1182,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="AJ4" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK4" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL4" t="s">
         <v>3</v>
@@ -1202,7 +1214,7 @@
         <v>45475</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>86</v>
@@ -1220,7 +1232,7 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J5">
         <v>700</v>
@@ -1229,22 +1241,22 @@
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O5" s="2">
         <v>45499</v>
       </c>
       <c r="Q5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S5" s="2">
         <v>45513</v>
       </c>
       <c r="AG5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="s">
         <v>3</v>
@@ -1253,10 +1265,10 @@
         <v>3</v>
       </c>
       <c r="AJ5" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK5" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL5" t="s">
         <v>3</v>
@@ -1273,7 +1285,7 @@
         <v>45475</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
         <v>86</v>
@@ -1291,7 +1303,7 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1300,22 +1312,22 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O6" s="2">
         <v>45499</v>
       </c>
       <c r="Q6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S6" s="2">
         <v>45513</v>
       </c>
       <c r="AG6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH6" t="s">
         <v>3</v>
@@ -1324,10 +1336,10 @@
         <v>3</v>
       </c>
       <c r="AJ6" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK6" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL6" t="s">
         <v>3</v>
@@ -1344,7 +1356,7 @@
         <v>45475</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
@@ -1362,7 +1374,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1371,22 +1383,22 @@
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2">
         <v>45499</v>
       </c>
       <c r="Q7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S7" s="2">
         <v>45513</v>
       </c>
       <c r="AG7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH7" t="s">
         <v>3</v>
@@ -1395,10 +1407,10 @@
         <v>3</v>
       </c>
       <c r="AJ7" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK7" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL7" t="s">
         <v>3</v>
@@ -1415,7 +1427,7 @@
         <v>45476</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
         <v>86</v>
@@ -1433,7 +1445,7 @@
         <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1445,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2">
         <v>45500</v>
       </c>
       <c r="Q8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S8" s="2">
         <v>45513</v>
       </c>
       <c r="AG8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH8" t="s">
         <v>3</v>
@@ -1469,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK8" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL8" t="s">
         <v>3</v>
@@ -1489,7 +1501,7 @@
         <v>45476</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>86</v>
@@ -1507,7 +1519,7 @@
         <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -1519,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O9" s="2">
         <v>45500</v>
       </c>
       <c r="Q9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S9" s="2">
         <v>45513</v>
       </c>
       <c r="AG9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH9" t="s">
         <v>3</v>
@@ -1543,10 +1555,10 @@
         <v>3</v>
       </c>
       <c r="AJ9" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK9" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL9" t="s">
         <v>3</v>
@@ -1563,7 +1575,7 @@
         <v>45476</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>86</v>
@@ -1581,7 +1593,7 @@
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1593,22 +1605,22 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O10" s="2">
         <v>45500</v>
       </c>
       <c r="Q10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S10" s="2">
         <v>45513</v>
       </c>
       <c r="AG10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH10" t="s">
         <v>3</v>
@@ -1617,10 +1629,10 @@
         <v>3</v>
       </c>
       <c r="AJ10" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK10" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL10" t="s">
         <v>3</v>
@@ -1637,7 +1649,7 @@
         <v>45476</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>86</v>
@@ -1655,7 +1667,7 @@
         <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J11">
         <v>300</v>
@@ -1667,22 +1679,22 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O11" s="2">
         <v>45500</v>
       </c>
       <c r="Q11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S11" s="2">
         <v>45513</v>
       </c>
       <c r="AG11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH11" t="s">
         <v>3</v>
@@ -1691,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="AJ11" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK11" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s">
         <v>3</v>
@@ -1711,7 +1723,7 @@
         <v>45477</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
         <v>86</v>
@@ -1729,7 +1741,7 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J12">
         <v>500</v>
@@ -1738,22 +1750,22 @@
         <v>500</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2">
         <v>45501</v>
       </c>
       <c r="Q12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S12" s="2">
         <v>45513</v>
       </c>
       <c r="AG12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH12" t="s">
         <v>3</v>
@@ -1762,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="AJ12" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL12" t="s">
         <v>3</v>
@@ -1782,7 +1794,7 @@
         <v>45477</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -1800,7 +1812,7 @@
         <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J13">
         <v>600</v>
@@ -1809,22 +1821,22 @@
         <v>600</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O13" s="2">
         <v>45501</v>
       </c>
       <c r="Q13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S13" s="2">
         <v>45513</v>
       </c>
       <c r="AG13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH13" t="s">
         <v>3</v>
@@ -1833,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="AJ13" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK13" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL13" t="s">
         <v>3</v>
@@ -1853,7 +1865,7 @@
         <v>45477</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>86</v>
@@ -1871,7 +1883,7 @@
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J14">
         <v>700</v>
@@ -1880,22 +1892,22 @@
         <v>700</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O14" s="2">
         <v>45501</v>
       </c>
       <c r="Q14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S14" s="2">
         <v>45513</v>
       </c>
       <c r="AG14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH14" t="s">
         <v>3</v>
@@ -1904,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK14" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL14" t="s">
         <v>3</v>
@@ -1924,7 +1936,7 @@
         <v>45477</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>86</v>
@@ -1942,7 +1954,7 @@
         <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1951,22 +1963,22 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O15" s="2">
         <v>45501</v>
       </c>
       <c r="Q15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S15" s="2">
         <v>45513</v>
       </c>
       <c r="AG15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH15" t="s">
         <v>3</v>
@@ -1975,10 +1987,10 @@
         <v>3</v>
       </c>
       <c r="AJ15" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s">
         <v>3</v>
@@ -1995,7 +2007,7 @@
         <v>45478</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
         <v>86</v>
@@ -2013,7 +2025,7 @@
         <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2022,16 +2034,16 @@
         <v>6</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O16" s="2">
         <v>45502</v>
       </c>
       <c r="Q16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S16" s="2">
         <v>45513</v>
@@ -2043,10 +2055,10 @@
         <v>3</v>
       </c>
       <c r="AJ16" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s">
         <v>3</v>
@@ -2063,7 +2075,7 @@
         <v>45478</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
@@ -2081,7 +2093,7 @@
         <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J17">
         <v>300</v>
@@ -2090,16 +2102,16 @@
         <v>300</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O17" s="2">
         <v>45502</v>
       </c>
       <c r="Q17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S17" s="2">
         <v>45513</v>
@@ -2111,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="AJ17" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK17" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s">
         <v>3</v>
@@ -2131,7 +2143,7 @@
         <v>45478</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>86</v>
@@ -2149,7 +2161,7 @@
         <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J18">
         <v>500</v>
@@ -2158,16 +2170,16 @@
         <v>500</v>
       </c>
       <c r="N18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O18" s="2">
         <v>45502</v>
       </c>
       <c r="Q18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S18" s="2">
         <v>45513</v>
@@ -2179,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="AJ18" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL18" t="s">
         <v>3</v>
@@ -2199,7 +2211,7 @@
         <v>45478</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
         <v>86</v>
@@ -2217,7 +2229,7 @@
         <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J19">
         <v>600</v>
@@ -2226,16 +2238,16 @@
         <v>600</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O19" s="2">
         <v>45502</v>
       </c>
       <c r="Q19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S19" s="2">
         <v>45513</v>
@@ -2247,10 +2259,10 @@
         <v>3</v>
       </c>
       <c r="AJ19" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL19" t="s">
         <v>3</v>
@@ -2267,7 +2279,7 @@
         <v>45479</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>86</v>
@@ -2285,7 +2297,7 @@
         <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J20">
         <v>700</v>
@@ -2294,22 +2306,22 @@
         <v>700</v>
       </c>
       <c r="N20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O20" s="2">
         <v>45503</v>
       </c>
       <c r="Q20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S20" s="2">
         <v>45513</v>
       </c>
       <c r="AG20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH20" t="s">
         <v>3</v>
@@ -2318,10 +2330,10 @@
         <v>3</v>
       </c>
       <c r="AJ20" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK20" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL20" t="s">
         <v>3</v>
@@ -2338,7 +2350,7 @@
         <v>45479</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
@@ -2356,7 +2368,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -2365,22 +2377,22 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O21" s="2">
         <v>45503</v>
       </c>
       <c r="Q21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S21" s="2">
         <v>45513</v>
       </c>
       <c r="AG21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="s">
         <v>3</v>
@@ -2389,10 +2401,10 @@
         <v>3</v>
       </c>
       <c r="AJ21" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK21" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL21" t="s">
         <v>3</v>
@@ -2409,7 +2421,7 @@
         <v>45479</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
         <v>86</v>
@@ -2427,7 +2439,7 @@
         <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2436,22 +2448,22 @@
         <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O22" s="2">
         <v>45503</v>
       </c>
       <c r="Q22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S22" s="2">
         <v>45513</v>
       </c>
       <c r="AG22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH22" t="s">
         <v>3</v>
@@ -2460,10 +2472,10 @@
         <v>3</v>
       </c>
       <c r="AJ22" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL22" t="s">
         <v>3</v>
@@ -2480,7 +2492,7 @@
         <v>45479</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
@@ -2498,7 +2510,7 @@
         <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2507,22 +2519,22 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O23" s="2">
         <v>45503</v>
       </c>
       <c r="Q23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S23" s="2">
         <v>45513</v>
       </c>
       <c r="AG23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH23" t="s">
         <v>3</v>
@@ -2531,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="AJ23" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK23" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL23" t="s">
         <v>3</v>
@@ -2551,7 +2563,7 @@
         <v>45479</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>86</v>
@@ -2569,7 +2581,7 @@
         <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -2578,22 +2590,22 @@
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O24" s="2">
         <v>45503</v>
       </c>
       <c r="Q24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S24" s="2">
         <v>45513</v>
       </c>
       <c r="AG24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH24" t="s">
         <v>3</v>
@@ -2602,10 +2614,10 @@
         <v>3</v>
       </c>
       <c r="AJ24" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL24" t="s">
         <v>3</v>
@@ -2622,7 +2634,7 @@
         <v>45479</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
         <v>86</v>
@@ -2640,7 +2652,7 @@
         <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -2649,22 +2661,22 @@
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O25" s="2">
         <v>45503</v>
       </c>
       <c r="Q25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S25" s="2">
         <v>45513</v>
       </c>
       <c r="AG25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH25" t="s">
         <v>3</v>
@@ -2673,10 +2685,10 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL25" t="s">
         <v>3</v>
@@ -2687,13 +2699,13 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2">
         <v>45480</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
         <v>86</v>
@@ -2711,7 +2723,7 @@
         <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J26">
         <v>300</v>
@@ -2720,22 +2732,22 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O26" s="2">
         <v>45504</v>
       </c>
       <c r="Q26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S26" s="2">
         <v>45513</v>
       </c>
       <c r="AG26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH26" t="s">
         <v>3</v>
@@ -2744,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="AJ26" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK26" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL26" t="s">
         <v>3</v>
@@ -2758,13 +2770,13 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2">
         <v>45480</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
         <v>86</v>
@@ -2782,7 +2794,7 @@
         <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J27">
         <v>500</v>
@@ -2791,22 +2803,22 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O27" s="2">
         <v>45504</v>
       </c>
       <c r="Q27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S27" s="2">
         <v>45513</v>
       </c>
       <c r="AG27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH27" t="s">
         <v>3</v>
@@ -2815,10 +2827,10 @@
         <v>3</v>
       </c>
       <c r="AJ27" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK27" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="s">
         <v>3</v>
@@ -2829,13 +2841,13 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2">
         <v>45480</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
         <v>86</v>
@@ -2853,7 +2865,7 @@
         <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J28">
         <v>600</v>
@@ -2862,22 +2874,22 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O28" s="2">
         <v>45504</v>
       </c>
       <c r="Q28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S28" s="2">
         <v>45513</v>
       </c>
       <c r="AG28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH28" t="s">
         <v>3</v>
@@ -2886,10 +2898,10 @@
         <v>3</v>
       </c>
       <c r="AJ28" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK28" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL28" t="s">
         <v>3</v>
@@ -2900,13 +2912,13 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2">
         <v>45481</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
         <v>86</v>
@@ -2924,7 +2936,7 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J29">
         <v>700</v>
@@ -2936,22 +2948,22 @@
         <v>350</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O29" s="2">
         <v>45505</v>
       </c>
       <c r="Q29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S29" s="2">
         <v>45513</v>
       </c>
       <c r="AG29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AH29" t="s">
         <v>3</v>
@@ -2960,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="AJ29" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK29" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL29" t="s">
         <v>3</v>
@@ -2974,13 +2986,13 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2">
         <v>45481</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
         <v>86</v>
@@ -2998,7 +3010,7 @@
         <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J30">
         <v>5000000</v>
@@ -3007,22 +3019,22 @@
         <v>5000000</v>
       </c>
       <c r="N30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O30" s="2">
         <v>45505</v>
       </c>
       <c r="Q30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S30" s="2">
         <v>45513</v>
       </c>
       <c r="AG30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AH30" t="s">
         <v>3</v>
@@ -3031,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK30" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL30" t="s">
         <v>3</v>
@@ -3045,13 +3057,13 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2">
         <v>45481</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
@@ -3069,7 +3081,7 @@
         <v>50</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J31">
         <v>600000080</v>
@@ -3078,22 +3090,22 @@
         <v>600000080</v>
       </c>
       <c r="N31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O31" s="2">
         <v>45505</v>
       </c>
       <c r="Q31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S31" s="2">
         <v>45513</v>
       </c>
       <c r="AG31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AH31" t="s">
         <v>3</v>
@@ -3102,10 +3114,10 @@
         <v>3</v>
       </c>
       <c r="AJ31" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL31" t="s">
         <v>3</v>
@@ -3116,13 +3128,13 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2">
         <v>45482</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
         <v>86</v>
@@ -3140,7 +3152,7 @@
         <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3149,22 +3161,22 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O32" s="2">
         <v>45506</v>
       </c>
       <c r="Q32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S32" s="2">
         <v>45513</v>
       </c>
       <c r="AG32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH32" t="s">
         <v>3</v>
@@ -3173,10 +3185,10 @@
         <v>3</v>
       </c>
       <c r="AJ32" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK32" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL32" t="s">
         <v>3</v>
@@ -3187,13 +3199,13 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B33" s="2">
         <v>45482</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
         <v>86</v>
@@ -3211,7 +3223,7 @@
         <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J33">
         <v>23</v>
@@ -3220,22 +3232,22 @@
         <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O33" s="2">
         <v>45506</v>
       </c>
       <c r="Q33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S33" s="2">
         <v>45513</v>
       </c>
       <c r="AG33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH33" t="s">
         <v>3</v>
@@ -3244,10 +3256,10 @@
         <v>3</v>
       </c>
       <c r="AJ33" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK33" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL33" t="s">
         <v>3</v>
@@ -3258,13 +3270,13 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2">
         <v>45482</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
         <v>86</v>
@@ -3282,7 +3294,7 @@
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J34">
         <v>10</v>
@@ -3291,22 +3303,22 @@
         <v>10</v>
       </c>
       <c r="N34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O34" s="2">
         <v>45506</v>
       </c>
       <c r="Q34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S34" s="2">
         <v>45513</v>
       </c>
       <c r="AG34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH34" t="s">
         <v>3</v>
@@ -3315,10 +3327,10 @@
         <v>3</v>
       </c>
       <c r="AJ34" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK34" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL34" t="s">
         <v>3</v>
@@ -3329,13 +3341,13 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2">
         <v>45482</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
         <v>86</v>
@@ -3353,7 +3365,7 @@
         <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J35">
         <v>300</v>
@@ -3362,22 +3374,22 @@
         <v>300</v>
       </c>
       <c r="N35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O35" s="2">
         <v>45506</v>
       </c>
       <c r="Q35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S35" s="2">
         <v>45513</v>
       </c>
       <c r="AG35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH35" t="s">
         <v>3</v>
@@ -3386,10 +3398,10 @@
         <v>3</v>
       </c>
       <c r="AJ35" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK35" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL35" t="s">
         <v>3</v>
@@ -3400,13 +3412,13 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B36" s="2">
         <v>45483</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>86</v>
@@ -3424,7 +3436,7 @@
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J36">
         <v>500</v>
@@ -3433,22 +3445,22 @@
         <v>500</v>
       </c>
       <c r="N36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O36" s="2">
         <v>45507</v>
       </c>
       <c r="Q36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S36" s="2">
         <v>45513</v>
       </c>
       <c r="AG36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH36" t="s">
         <v>3</v>
@@ -3457,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="AJ36" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK36" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL36" t="s">
         <v>3</v>
@@ -3471,13 +3483,13 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2">
         <v>45483</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
         <v>86</v>
@@ -3495,7 +3507,7 @@
         <v>62</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J37">
         <v>600</v>
@@ -3504,22 +3516,22 @@
         <v>600</v>
       </c>
       <c r="N37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O37" s="2">
         <v>45507</v>
       </c>
       <c r="Q37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S37" s="2">
         <v>45513</v>
       </c>
       <c r="AG37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH37" t="s">
         <v>3</v>
@@ -3528,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="AJ37" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK37" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL37" t="s">
         <v>3</v>
@@ -3542,13 +3554,13 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2">
         <v>45483</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
         <v>86</v>
@@ -3566,7 +3578,7 @@
         <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J38">
         <v>700</v>
@@ -3575,22 +3587,22 @@
         <v>700</v>
       </c>
       <c r="N38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O38" s="2">
         <v>45507</v>
       </c>
       <c r="Q38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S38" s="2">
         <v>45513</v>
       </c>
       <c r="AG38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH38" t="s">
         <v>3</v>
@@ -3599,10 +3611,10 @@
         <v>3</v>
       </c>
       <c r="AJ38" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK38" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL38" t="s">
         <v>3</v>
@@ -3613,13 +3625,13 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2">
         <v>45483</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
         <v>86</v>
@@ -3637,7 +3649,7 @@
         <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -3646,22 +3658,22 @@
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O39" s="2">
         <v>45507</v>
       </c>
       <c r="Q39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S39" s="2">
         <v>45513</v>
       </c>
       <c r="AG39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH39" t="s">
         <v>3</v>
@@ -3670,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="AJ39" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK39" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL39" t="s">
         <v>3</v>
@@ -3684,13 +3696,13 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B40" s="2">
         <v>45484</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
         <v>86</v>
@@ -3708,7 +3720,7 @@
         <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J40">
         <v>6</v>
@@ -3717,22 +3729,22 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O40" s="2">
         <v>45508</v>
       </c>
       <c r="Q40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S40" s="2">
         <v>45513</v>
       </c>
       <c r="AG40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH40" t="s">
         <v>3</v>
@@ -3741,10 +3753,10 @@
         <v>3</v>
       </c>
       <c r="AJ40" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL40" t="s">
         <v>3</v>
@@ -3755,13 +3767,13 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2">
         <v>45484</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
         <v>86</v>
@@ -3779,7 +3791,7 @@
         <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J41">
         <v>300</v>
@@ -3788,22 +3800,22 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O41" s="2">
         <v>45508</v>
       </c>
       <c r="Q41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S41" s="2">
         <v>45513</v>
       </c>
       <c r="AG41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH41" t="s">
         <v>3</v>
@@ -3812,10 +3824,10 @@
         <v>3</v>
       </c>
       <c r="AJ41" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL41" t="s">
         <v>3</v>
@@ -3826,13 +3838,13 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2">
         <v>45484</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
         <v>86</v>
@@ -3850,7 +3862,7 @@
         <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J42">
         <v>500</v>
@@ -3859,22 +3871,22 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O42" s="2">
         <v>45508</v>
       </c>
       <c r="Q42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S42" s="2">
         <v>45513</v>
       </c>
       <c r="AG42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH42" t="s">
         <v>3</v>
@@ -3883,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="AJ42" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL42" t="s">
         <v>3</v>
@@ -3897,13 +3909,13 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2">
         <v>45484</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
         <v>86</v>
@@ -3921,7 +3933,7 @@
         <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J43">
         <v>600</v>
@@ -3930,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O43" s="2">
         <v>45508</v>
       </c>
       <c r="Q43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S43" s="2">
         <v>45513</v>
       </c>
       <c r="AG43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH43" t="s">
         <v>3</v>
@@ -3954,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="AJ43" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK43" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL43" t="s">
         <v>3</v>
@@ -3968,13 +3980,13 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2">
         <v>45485</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
         <v>86</v>
@@ -3992,7 +4004,7 @@
         <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J44">
         <v>700</v>
@@ -4004,22 +4016,22 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O44" s="2">
         <v>45509</v>
       </c>
       <c r="Q44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S44" s="2">
         <v>45513</v>
       </c>
       <c r="AG44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH44" t="s">
         <v>3</v>
@@ -4028,10 +4040,10 @@
         <v>3</v>
       </c>
       <c r="AJ44" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL44" t="s">
         <v>3</v>
@@ -4042,13 +4054,13 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2">
         <v>45485</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
         <v>86</v>
@@ -4066,7 +4078,7 @@
         <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -4078,22 +4090,22 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O45" s="2">
         <v>45509</v>
       </c>
       <c r="Q45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S45" s="2">
         <v>45513</v>
       </c>
       <c r="AG45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH45" t="s">
         <v>3</v>
@@ -4102,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="AJ45" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL45" t="s">
         <v>3</v>
@@ -4116,13 +4128,13 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2">
         <v>45485</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
         <v>86</v>
@@ -4140,7 +4152,7 @@
         <v>74</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J46">
         <v>6</v>
@@ -4152,22 +4164,22 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O46" s="2">
         <v>45509</v>
       </c>
       <c r="Q46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S46" s="2">
         <v>45513</v>
       </c>
       <c r="AG46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH46" t="s">
         <v>3</v>
@@ -4176,10 +4188,10 @@
         <v>3</v>
       </c>
       <c r="AJ46" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK46" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL46" t="s">
         <v>3</v>
@@ -4190,13 +4202,13 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2">
         <v>45485</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
         <v>86</v>
@@ -4214,7 +4226,7 @@
         <v>76</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -4226,22 +4238,22 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O47" s="2">
         <v>45509</v>
       </c>
       <c r="Q47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S47" s="2">
         <v>45513</v>
       </c>
       <c r="AG47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH47" t="s">
         <v>3</v>
@@ -4250,10 +4262,10 @@
         <v>3</v>
       </c>
       <c r="AJ47" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK47" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL47" t="s">
         <v>3</v>
@@ -4264,13 +4276,13 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2">
         <v>45485</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
         <v>86</v>
@@ -4288,7 +4300,7 @@
         <v>78</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J48">
         <v>23</v>
@@ -4300,22 +4312,22 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O48" s="2">
         <v>45509</v>
       </c>
       <c r="Q48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S48" s="2">
         <v>45513</v>
       </c>
       <c r="AG48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH48" t="s">
         <v>3</v>
@@ -4324,10 +4336,10 @@
         <v>3</v>
       </c>
       <c r="AJ48" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL48" t="s">
         <v>3</v>
@@ -4338,13 +4350,13 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2">
         <v>45485</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
         <v>86</v>
@@ -4362,7 +4374,7 @@
         <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J49">
         <v>10</v>
@@ -4374,22 +4386,22 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O49" s="2">
         <v>45509</v>
       </c>
       <c r="Q49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S49" s="2">
         <v>45513</v>
       </c>
       <c r="AG49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH49" t="s">
         <v>3</v>
@@ -4398,10 +4410,10 @@
         <v>3</v>
       </c>
       <c r="AJ49" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL49" t="s">
         <v>3</v>
@@ -4412,13 +4424,13 @@
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2">
         <v>45486</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
         <v>86</v>
@@ -4436,7 +4448,7 @@
         <v>40</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J50">
         <v>300</v>
@@ -4445,16 +4457,16 @@
         <v>300</v>
       </c>
       <c r="N50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O50" s="2">
         <v>45510</v>
       </c>
       <c r="Q50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R50" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S50" s="2">
         <v>45513</v>
@@ -4466,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="AJ50" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK50" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL50" t="s">
         <v>3</v>
@@ -4480,13 +4492,13 @@
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2">
         <v>45486</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
         <v>86</v>
@@ -4504,7 +4516,7 @@
         <v>42</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J51">
         <v>500</v>
@@ -4513,16 +4525,16 @@
         <v>500</v>
       </c>
       <c r="N51" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O51" s="2">
         <v>45510</v>
       </c>
       <c r="Q51" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S51" s="2">
         <v>45513</v>
@@ -4534,10 +4546,10 @@
         <v>3</v>
       </c>
       <c r="AJ51" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK51" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL51" t="s">
         <v>3</v>
@@ -4548,13 +4560,13 @@
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2">
         <v>45486</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>86</v>
@@ -4572,7 +4584,7 @@
         <v>44</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J52">
         <v>600</v>
@@ -4581,16 +4593,16 @@
         <v>600</v>
       </c>
       <c r="N52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O52" s="2">
         <v>45510</v>
       </c>
       <c r="Q52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S52" s="2">
         <v>45513</v>
@@ -4602,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="AJ52" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK52" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL52" t="s">
         <v>3</v>
@@ -4616,13 +4628,13 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2">
         <v>45487</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
@@ -4640,7 +4652,7 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J53">
         <v>700</v>
@@ -4649,16 +4661,16 @@
         <v>700</v>
       </c>
       <c r="N53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O53" s="2">
         <v>45511</v>
       </c>
       <c r="Q53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S53" s="2">
         <v>45513</v>
@@ -4670,10 +4682,10 @@
         <v>3</v>
       </c>
       <c r="AJ53" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK53" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL53" t="s">
         <v>3</v>
@@ -4684,13 +4696,13 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2">
         <v>45487</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>86</v>
@@ -4708,7 +4720,7 @@
         <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -4717,16 +4729,16 @@
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O54" s="2">
         <v>45511</v>
       </c>
       <c r="Q54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R54" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S54" s="2">
         <v>45513</v>
@@ -4738,10 +4750,10 @@
         <v>3</v>
       </c>
       <c r="AJ54" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK54" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL54" t="s">
         <v>3</v>
@@ -4752,13 +4764,13 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2">
         <v>45487</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
         <v>86</v>
@@ -4776,7 +4788,7 @@
         <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J55">
         <v>6</v>
@@ -4785,16 +4797,16 @@
         <v>6</v>
       </c>
       <c r="N55" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O55" s="2">
         <v>45511</v>
       </c>
       <c r="Q55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R55" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S55" s="2">
         <v>45513</v>
@@ -4806,10 +4818,10 @@
         <v>3</v>
       </c>
       <c r="AJ55" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK55" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL55" t="s">
         <v>3</v>
@@ -4820,13 +4832,13 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2">
         <v>45488</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s">
         <v>86</v>
@@ -4844,7 +4856,7 @@
         <v>52</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4853,16 +4865,16 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O56" s="2">
         <v>45512</v>
       </c>
       <c r="Q56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R56" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S56" s="2">
         <v>45513</v>
@@ -4874,10 +4886,10 @@
         <v>3</v>
       </c>
       <c r="AJ56" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK56" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL56" t="s">
         <v>3</v>
@@ -4888,13 +4900,13 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2">
         <v>45488</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
         <v>86</v>
@@ -4912,7 +4924,7 @@
         <v>54</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J57">
         <v>23</v>
@@ -4921,16 +4933,16 @@
         <v>23</v>
       </c>
       <c r="N57" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O57" s="2">
         <v>45512</v>
       </c>
       <c r="Q57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R57" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S57" s="2">
         <v>45513</v>
@@ -4942,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="AJ57" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK57" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL57" t="s">
         <v>3</v>
@@ -4956,13 +4968,13 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2">
         <v>45488</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
         <v>86</v>
@@ -4980,7 +4992,7 @@
         <v>56</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J58">
         <v>10</v>
@@ -4989,16 +5001,16 @@
         <v>10</v>
       </c>
       <c r="N58" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O58" s="2">
         <v>45512</v>
       </c>
       <c r="Q58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R58" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S58" s="2">
         <v>45513</v>
@@ -5010,10 +5022,10 @@
         <v>3</v>
       </c>
       <c r="AJ58" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK58" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL58" t="s">
         <v>3</v>
@@ -5024,13 +5036,13 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2">
         <v>45488</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
         <v>86</v>
@@ -5048,7 +5060,7 @@
         <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J59">
         <v>300</v>
@@ -5057,16 +5069,16 @@
         <v>300</v>
       </c>
       <c r="N59" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O59" s="2">
         <v>45512</v>
       </c>
       <c r="Q59" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R59" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S59" s="2">
         <v>45513</v>
@@ -5078,10 +5090,10 @@
         <v>3</v>
       </c>
       <c r="AJ59" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK59" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL59" t="s">
         <v>3</v>
@@ -5092,13 +5104,13 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2">
         <v>45489</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
         <v>86</v>
@@ -5116,7 +5128,7 @@
         <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J60">
         <v>500</v>
@@ -5125,16 +5137,16 @@
         <v>500</v>
       </c>
       <c r="N60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O60" s="2">
         <v>45513</v>
       </c>
       <c r="Q60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S60" s="2">
         <v>45513</v>
@@ -5146,10 +5158,10 @@
         <v>3</v>
       </c>
       <c r="AJ60" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL60" t="s">
         <v>3</v>
@@ -5160,13 +5172,13 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2">
         <v>45489</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
         <v>86</v>
@@ -5184,7 +5196,7 @@
         <v>62</v>
       </c>
       <c r="I61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J61">
         <v>600</v>
@@ -5193,16 +5205,16 @@
         <v>600</v>
       </c>
       <c r="N61" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O61" s="2">
         <v>45513</v>
       </c>
       <c r="Q61" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R61" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S61" s="2">
         <v>45513</v>
@@ -5214,10 +5226,10 @@
         <v>3</v>
       </c>
       <c r="AJ61" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK61" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL61" t="s">
         <v>3</v>
@@ -5228,13 +5240,13 @@
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2">
         <v>45489</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
         <v>86</v>
@@ -5252,7 +5264,7 @@
         <v>64</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J62">
         <v>700</v>
@@ -5261,16 +5273,16 @@
         <v>700</v>
       </c>
       <c r="N62" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O62" s="2">
         <v>45513</v>
       </c>
       <c r="Q62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S62" s="2">
         <v>45513</v>
@@ -5282,10 +5294,10 @@
         <v>3</v>
       </c>
       <c r="AJ62" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK62" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL62" t="s">
         <v>3</v>
@@ -5296,13 +5308,13 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2">
         <v>45489</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
         <v>86</v>
@@ -5320,7 +5332,7 @@
         <v>66</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J63">
         <v>5</v>
@@ -5329,16 +5341,16 @@
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O63" s="2">
         <v>45513</v>
       </c>
       <c r="Q63" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R63" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S63" s="2">
         <v>45513</v>
@@ -5350,10 +5362,10 @@
         <v>3</v>
       </c>
       <c r="AJ63" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK63" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL63" t="s">
         <v>3</v>
@@ -5364,13 +5376,13 @@
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2">
         <v>45490</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
         <v>86</v>
@@ -5388,7 +5400,7 @@
         <v>68</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J64">
         <v>6</v>
@@ -5397,16 +5409,16 @@
         <v>6</v>
       </c>
       <c r="N64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O64" s="2">
         <v>45514</v>
       </c>
       <c r="Q64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R64" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S64" s="2">
         <v>45513</v>
@@ -5418,10 +5430,10 @@
         <v>3</v>
       </c>
       <c r="AJ64" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK64" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL64" t="s">
         <v>3</v>
@@ -5432,13 +5444,13 @@
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2">
         <v>45490</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
         <v>86</v>
@@ -5456,7 +5468,7 @@
         <v>70</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J65">
         <v>300</v>
@@ -5465,16 +5477,16 @@
         <v>300</v>
       </c>
       <c r="N65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O65" s="2">
         <v>45514</v>
       </c>
       <c r="Q65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S65" s="2">
         <v>45513</v>
@@ -5486,10 +5498,10 @@
         <v>3</v>
       </c>
       <c r="AJ65" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK65" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL65" t="s">
         <v>3</v>
@@ -5500,13 +5512,13 @@
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2">
         <v>45490</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
         <v>86</v>
@@ -5524,7 +5536,7 @@
         <v>72</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J66">
         <v>500</v>
@@ -5533,16 +5545,16 @@
         <v>500</v>
       </c>
       <c r="N66" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O66" s="2">
         <v>45514</v>
       </c>
       <c r="Q66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S66" s="2">
         <v>45513</v>
@@ -5554,10 +5566,10 @@
         <v>3</v>
       </c>
       <c r="AJ66" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK66" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL66" t="s">
         <v>3</v>
@@ -5568,13 +5580,13 @@
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2">
         <v>45490</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
         <v>86</v>
@@ -5592,7 +5604,7 @@
         <v>74</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J67">
         <v>600</v>
@@ -5601,16 +5613,16 @@
         <v>600</v>
       </c>
       <c r="N67" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O67" s="2">
         <v>45514</v>
       </c>
       <c r="Q67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R67" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S67" s="2">
         <v>45513</v>
@@ -5622,10 +5634,10 @@
         <v>3</v>
       </c>
       <c r="AJ67" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK67" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL67" t="s">
         <v>3</v>
@@ -5636,13 +5648,13 @@
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2">
         <v>45491</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
         <v>86</v>
@@ -5660,7 +5672,7 @@
         <v>70</v>
       </c>
       <c r="I68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J68">
         <v>700</v>
@@ -5669,16 +5681,16 @@
         <v>700</v>
       </c>
       <c r="N68" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O68" s="2">
         <v>45515</v>
       </c>
       <c r="Q68" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S68" s="2">
         <v>45513</v>
@@ -5690,10 +5702,10 @@
         <v>3</v>
       </c>
       <c r="AJ68" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK68" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL68" t="s">
         <v>3</v>
@@ -5704,13 +5716,13 @@
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2">
         <v>45491</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
         <v>86</v>
@@ -5728,7 +5740,7 @@
         <v>72</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -5737,16 +5749,16 @@
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O69" s="2">
         <v>45515</v>
       </c>
       <c r="Q69" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S69" s="2">
         <v>45513</v>
@@ -5758,10 +5770,10 @@
         <v>3</v>
       </c>
       <c r="AJ69" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK69" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL69" t="s">
         <v>3</v>
@@ -5772,13 +5784,13 @@
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2">
         <v>45491</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
         <v>86</v>
@@ -5796,7 +5808,7 @@
         <v>74</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J70">
         <v>6</v>
@@ -5805,16 +5817,16 @@
         <v>6</v>
       </c>
       <c r="N70" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O70" s="2">
         <v>45515</v>
       </c>
       <c r="Q70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R70" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S70" s="2">
         <v>45513</v>
@@ -5826,10 +5838,10 @@
         <v>3</v>
       </c>
       <c r="AJ70" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK70" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL70" t="s">
         <v>3</v>
@@ -5840,13 +5852,13 @@
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2">
         <v>45491</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
         <v>86</v>
@@ -5864,7 +5876,7 @@
         <v>76</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5873,16 +5885,16 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O71" s="2">
         <v>45515</v>
       </c>
       <c r="Q71" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S71" s="2">
         <v>45513</v>
@@ -5894,10 +5906,10 @@
         <v>3</v>
       </c>
       <c r="AJ71" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK71" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL71" t="s">
         <v>3</v>
@@ -5908,13 +5920,13 @@
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2">
         <v>45491</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
         <v>86</v>
@@ -5932,7 +5944,7 @@
         <v>78</v>
       </c>
       <c r="I72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J72">
         <v>23</v>
@@ -5941,16 +5953,16 @@
         <v>23</v>
       </c>
       <c r="N72" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O72" s="2">
         <v>45515</v>
       </c>
       <c r="Q72" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R72" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S72" s="2">
         <v>45513</v>
@@ -5962,10 +5974,10 @@
         <v>3</v>
       </c>
       <c r="AJ72" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK72" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL72" t="s">
         <v>3</v>
@@ -5976,13 +5988,13 @@
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2">
         <v>45491</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D73" t="s">
         <v>86</v>
@@ -6000,7 +6012,7 @@
         <v>80</v>
       </c>
       <c r="I73" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J73">
         <v>10</v>
@@ -6009,16 +6021,16 @@
         <v>10</v>
       </c>
       <c r="N73" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O73" s="2">
         <v>45515</v>
       </c>
       <c r="Q73" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R73" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S73" s="2">
         <v>45513</v>
@@ -6030,10 +6042,10 @@
         <v>3</v>
       </c>
       <c r="AJ73" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK73" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL73" t="s">
         <v>3</v>
@@ -6044,13 +6056,13 @@
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2">
         <v>45492</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
         <v>86</v>
@@ -6068,7 +6080,7 @@
         <v>70</v>
       </c>
       <c r="I74" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J74">
         <v>700</v>
@@ -6080,22 +6092,22 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O74" s="2">
         <v>45516</v>
       </c>
       <c r="Q74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R74" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S74" s="2">
         <v>45513</v>
       </c>
       <c r="AG74" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH74" t="s">
         <v>3</v>
@@ -6104,10 +6116,10 @@
         <v>3</v>
       </c>
       <c r="AJ74" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK74" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL74" t="s">
         <v>3</v>
@@ -6118,13 +6130,13 @@
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2">
         <v>45492</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
         <v>86</v>
@@ -6142,7 +6154,7 @@
         <v>72</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -6154,22 +6166,22 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O75" s="2">
         <v>45516</v>
       </c>
       <c r="Q75" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R75" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S75" s="2">
         <v>45513</v>
       </c>
       <c r="AG75" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH75" t="s">
         <v>3</v>
@@ -6178,10 +6190,10 @@
         <v>3</v>
       </c>
       <c r="AJ75" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK75" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL75" t="s">
         <v>3</v>
@@ -6192,13 +6204,13 @@
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2">
         <v>45492</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
         <v>86</v>
@@ -6216,7 +6228,7 @@
         <v>74</v>
       </c>
       <c r="I76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -6228,22 +6240,22 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O76" s="2">
         <v>45516</v>
       </c>
       <c r="Q76" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S76" s="2">
         <v>45513</v>
       </c>
       <c r="AG76" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH76" t="s">
         <v>3</v>
@@ -6252,10 +6264,10 @@
         <v>3</v>
       </c>
       <c r="AJ76" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK76" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL76" t="s">
         <v>3</v>
@@ -6266,13 +6278,13 @@
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2">
         <v>45492</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
         <v>86</v>
@@ -6290,7 +6302,7 @@
         <v>76</v>
       </c>
       <c r="I77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -6302,22 +6314,22 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O77" s="2">
         <v>45516</v>
       </c>
       <c r="Q77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S77" s="2">
         <v>45513</v>
       </c>
       <c r="AG77" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH77" t="s">
         <v>3</v>
@@ -6326,10 +6338,10 @@
         <v>3</v>
       </c>
       <c r="AJ77" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK77" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL77" t="s">
         <v>3</v>
@@ -6340,13 +6352,13 @@
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2">
         <v>45492</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
         <v>86</v>
@@ -6364,7 +6376,7 @@
         <v>78</v>
       </c>
       <c r="I78" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J78">
         <v>23</v>
@@ -6376,22 +6388,22 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O78" s="2">
         <v>45516</v>
       </c>
       <c r="Q78" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S78" s="2">
         <v>45513</v>
       </c>
       <c r="AG78" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH78" t="s">
         <v>3</v>
@@ -6400,10 +6412,10 @@
         <v>3</v>
       </c>
       <c r="AJ78" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK78" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL78" t="s">
         <v>3</v>
@@ -6414,13 +6426,13 @@
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2">
         <v>45492</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
         <v>86</v>
@@ -6438,7 +6450,7 @@
         <v>80</v>
       </c>
       <c r="I79" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J79">
         <v>10</v>
@@ -6450,22 +6462,22 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O79" s="2">
         <v>45516</v>
       </c>
       <c r="Q79" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S79" s="2">
         <v>45513</v>
       </c>
       <c r="AG79" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AH79" t="s">
         <v>3</v>
@@ -6474,10 +6486,10 @@
         <v>3</v>
       </c>
       <c r="AJ79" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK79" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL79" t="s">
         <v>3</v>
@@ -6488,13 +6500,13 @@
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2">
         <v>45493</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
         <v>86</v>
@@ -6512,7 +6524,7 @@
         <v>40</v>
       </c>
       <c r="I80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J80">
         <v>300</v>
@@ -6521,16 +6533,16 @@
         <v>300</v>
       </c>
       <c r="N80" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O80" s="2">
         <v>45517</v>
       </c>
       <c r="Q80" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R80" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S80" s="2">
         <v>45513</v>
@@ -6542,10 +6554,10 @@
         <v>3</v>
       </c>
       <c r="AJ80" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK80" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL80" t="s">
         <v>3</v>
@@ -6556,13 +6568,13 @@
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2">
         <v>45493</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
@@ -6580,7 +6592,7 @@
         <v>42</v>
       </c>
       <c r="I81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J81">
         <v>500</v>
@@ -6589,16 +6601,16 @@
         <v>500</v>
       </c>
       <c r="N81" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O81" s="2">
         <v>45517</v>
       </c>
       <c r="Q81" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R81" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S81" s="2">
         <v>45513</v>
@@ -6610,10 +6622,10 @@
         <v>3</v>
       </c>
       <c r="AJ81" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK81" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL81" t="s">
         <v>3</v>
@@ -6624,13 +6636,13 @@
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2">
         <v>45493</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D82" t="s">
         <v>86</v>
@@ -6648,7 +6660,7 @@
         <v>44</v>
       </c>
       <c r="I82" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J82">
         <v>600</v>
@@ -6657,16 +6669,16 @@
         <v>600</v>
       </c>
       <c r="N82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O82" s="2">
         <v>45517</v>
       </c>
       <c r="Q82" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S82" s="2">
         <v>45513</v>
@@ -6678,10 +6690,10 @@
         <v>3</v>
       </c>
       <c r="AJ82" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK82" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL82" t="s">
         <v>3</v>
@@ -6692,13 +6704,13 @@
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2">
         <v>45494</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
         <v>86</v>
@@ -6716,7 +6728,7 @@
         <v>46</v>
       </c>
       <c r="I83" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J83">
         <v>700</v>
@@ -6725,16 +6737,16 @@
         <v>700</v>
       </c>
       <c r="N83" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O83" s="2">
         <v>45518</v>
       </c>
       <c r="Q83" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R83" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S83" s="2">
         <v>45513</v>
@@ -6746,10 +6758,10 @@
         <v>3</v>
       </c>
       <c r="AJ83" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK83" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL83" t="s">
         <v>3</v>
@@ -6760,13 +6772,13 @@
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2">
         <v>45494</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s">
         <v>86</v>
@@ -6784,7 +6796,7 @@
         <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -6793,16 +6805,16 @@
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O84" s="2">
         <v>45518</v>
       </c>
       <c r="Q84" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R84" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S84" s="2">
         <v>45513</v>
@@ -6814,10 +6826,10 @@
         <v>3</v>
       </c>
       <c r="AJ84" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK84" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL84" t="s">
         <v>3</v>
@@ -6828,13 +6840,13 @@
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2">
         <v>45494</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
         <v>86</v>
@@ -6852,7 +6864,7 @@
         <v>50</v>
       </c>
       <c r="I85" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J85">
         <v>6</v>
@@ -6861,16 +6873,16 @@
         <v>6</v>
       </c>
       <c r="N85" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O85" s="2">
         <v>45518</v>
       </c>
       <c r="Q85" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S85" s="2">
         <v>45513</v>
@@ -6882,10 +6894,10 @@
         <v>3</v>
       </c>
       <c r="AJ85" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AK85" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="AL85" t="s">
         <v>3</v>
@@ -6896,13 +6908,13 @@
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2">
         <v>45495</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D86" t="s">
         <v>86</v>
@@ -6920,7 +6932,7 @@
         <v>52</v>
       </c>
       <c r="I86" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -6929,16 +6941,16 @@
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O86" s="2">
         <v>45519</v>
       </c>
       <c r="Q86" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S86" s="2">
         <v>45513</v>
@@ -6950,10 +6962,10 @@
         <v>3</v>
       </c>
       <c r="AJ86" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK86" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL86" t="s">
         <v>3</v>
@@ -6964,13 +6976,13 @@
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2">
         <v>45495</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D87" t="s">
         <v>86</v>
@@ -6988,7 +7000,7 @@
         <v>54</v>
       </c>
       <c r="I87" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J87">
         <v>23</v>
@@ -6997,16 +7009,16 @@
         <v>23</v>
       </c>
       <c r="N87" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O87" s="2">
         <v>45519</v>
       </c>
       <c r="Q87" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R87" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S87" s="2">
         <v>45513</v>
@@ -7018,10 +7030,10 @@
         <v>3</v>
       </c>
       <c r="AJ87" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK87" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL87" t="s">
         <v>3</v>
@@ -7032,13 +7044,13 @@
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2">
         <v>45495</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
         <v>86</v>
@@ -7056,7 +7068,7 @@
         <v>56</v>
       </c>
       <c r="I88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J88">
         <v>10</v>
@@ -7065,16 +7077,16 @@
         <v>10</v>
       </c>
       <c r="N88" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O88" s="2">
         <v>45519</v>
       </c>
       <c r="Q88" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R88" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S88" s="2">
         <v>45513</v>
@@ -7086,10 +7098,10 @@
         <v>3</v>
       </c>
       <c r="AJ88" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK88" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL88" t="s">
         <v>3</v>
@@ -7100,13 +7112,13 @@
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2">
         <v>45495</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
         <v>86</v>
@@ -7124,7 +7136,7 @@
         <v>58</v>
       </c>
       <c r="I89" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J89">
         <v>300</v>
@@ -7133,16 +7145,16 @@
         <v>300</v>
       </c>
       <c r="N89" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O89" s="2">
         <v>45519</v>
       </c>
       <c r="Q89" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R89" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S89" s="2">
         <v>45513</v>
@@ -7154,10 +7166,10 @@
         <v>3</v>
       </c>
       <c r="AJ89" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AK89" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="AL89" t="s">
         <v>3</v>
@@ -7168,13 +7180,13 @@
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2">
         <v>45496</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
         <v>86</v>
@@ -7192,7 +7204,7 @@
         <v>60</v>
       </c>
       <c r="I90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J90">
         <v>500</v>
@@ -7201,16 +7213,16 @@
         <v>500</v>
       </c>
       <c r="N90" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O90" s="2">
         <v>45520</v>
       </c>
       <c r="Q90" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R90" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S90" s="2">
         <v>45513</v>
@@ -7222,10 +7234,10 @@
         <v>3</v>
       </c>
       <c r="AJ90" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK90" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL90" t="s">
         <v>3</v>
@@ -7236,13 +7248,13 @@
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2">
         <v>45496</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
         <v>86</v>
@@ -7260,7 +7272,7 @@
         <v>62</v>
       </c>
       <c r="I91" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J91">
         <v>600</v>
@@ -7269,16 +7281,16 @@
         <v>600</v>
       </c>
       <c r="N91" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O91" s="2">
         <v>45520</v>
       </c>
       <c r="Q91" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R91" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S91" s="2">
         <v>45513</v>
@@ -7290,10 +7302,10 @@
         <v>3</v>
       </c>
       <c r="AJ91" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK91" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL91" t="s">
         <v>3</v>
@@ -7304,13 +7316,13 @@
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2">
         <v>45496</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
         <v>86</v>
@@ -7328,7 +7340,7 @@
         <v>64</v>
       </c>
       <c r="I92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J92">
         <v>700</v>
@@ -7337,16 +7349,16 @@
         <v>700</v>
       </c>
       <c r="N92" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O92" s="2">
         <v>45520</v>
       </c>
       <c r="Q92" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R92" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S92" s="2">
         <v>45513</v>
@@ -7358,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="AJ92" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK92" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL92" t="s">
         <v>3</v>
@@ -7372,13 +7384,13 @@
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2">
         <v>45496</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
         <v>86</v>
@@ -7396,7 +7408,7 @@
         <v>66</v>
       </c>
       <c r="I93" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J93">
         <v>5</v>
@@ -7405,16 +7417,16 @@
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O93" s="2">
         <v>45520</v>
       </c>
       <c r="Q93" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R93" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S93" s="2">
         <v>45513</v>
@@ -7426,10 +7438,10 @@
         <v>3</v>
       </c>
       <c r="AJ93" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="AK93" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AL93" t="s">
         <v>3</v>
@@ -7440,13 +7452,13 @@
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2">
         <v>45497</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
         <v>86</v>
@@ -7464,7 +7476,7 @@
         <v>68</v>
       </c>
       <c r="I94" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J94">
         <v>6</v>
@@ -7473,16 +7485,16 @@
         <v>6</v>
       </c>
       <c r="N94" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O94" s="2">
         <v>45521</v>
       </c>
       <c r="Q94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R94" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S94" s="2">
         <v>45513</v>
@@ -7494,10 +7506,10 @@
         <v>3</v>
       </c>
       <c r="AJ94" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK94" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL94" t="s">
         <v>3</v>
@@ -7508,13 +7520,13 @@
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2">
         <v>45497</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
         <v>86</v>
@@ -7532,7 +7544,7 @@
         <v>70</v>
       </c>
       <c r="I95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J95">
         <v>300</v>
@@ -7541,16 +7553,16 @@
         <v>300</v>
       </c>
       <c r="N95" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O95" s="2">
         <v>45521</v>
       </c>
       <c r="Q95" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R95" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S95" s="2">
         <v>45513</v>
@@ -7562,10 +7574,10 @@
         <v>3</v>
       </c>
       <c r="AJ95" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK95" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL95" t="s">
         <v>3</v>
@@ -7576,13 +7588,13 @@
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2">
         <v>45497</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
         <v>86</v>
@@ -7600,7 +7612,7 @@
         <v>72</v>
       </c>
       <c r="I96" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J96">
         <v>500</v>
@@ -7609,16 +7621,16 @@
         <v>500</v>
       </c>
       <c r="N96" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O96" s="2">
         <v>45521</v>
       </c>
       <c r="Q96" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R96" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S96" s="2">
         <v>45513</v>
@@ -7630,10 +7642,10 @@
         <v>3</v>
       </c>
       <c r="AJ96" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK96" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL96" t="s">
         <v>3</v>
@@ -7644,13 +7656,13 @@
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2">
         <v>45497</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D97" t="s">
         <v>86</v>
@@ -7668,7 +7680,7 @@
         <v>74</v>
       </c>
       <c r="I97" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J97">
         <v>600</v>
@@ -7677,16 +7689,16 @@
         <v>600</v>
       </c>
       <c r="N97" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O97" s="2">
         <v>45521</v>
       </c>
       <c r="Q97" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R97" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S97" s="2">
         <v>45513</v>
@@ -7698,10 +7710,10 @@
         <v>3</v>
       </c>
       <c r="AJ97" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AK97" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL97" t="s">
         <v>3</v>
